--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>85.62</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>270041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>广发消费品精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.62</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004436</t>
+          <t>162203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富年年泰定期开放混合A</t>
+          <t>泰达宏利稳定混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004437</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富年年泰定期开放混合C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162203</t>
+          <t>006780</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利稳定混合</t>
+          <t>广发稳健策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>泰达宏利中证500指数增强（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.81</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010022</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发消费品精选混合C</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270041</t>
+          <t>006008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发消费品精选混合A</t>
+          <t>诺安积极配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>004436</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>汇添富年年泰定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.16</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>010022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>广发消费品精选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>004437</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
+          <t>汇添富年年泰定期开放混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006780</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发稳健策略混合</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>004436</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>汇添富年年泰定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004436</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富年年泰定期开放混合A</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.07</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>25.07</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,4 +2057,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3253,4 +3254,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3262,7 +3263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3273,17 +3274,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3293,14 +3314,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.12</v>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3309,14 +3352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -3325,14 +3390,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.59</v>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3341,13 +3428,2809 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5797</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5658</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>65.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>65.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6129,7 +6130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6140,17 +6141,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6160,14 +6181,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.81</v>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6176,14 +6219,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.12</v>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6192,14 +6257,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.65</v>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6208,14 +6295,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.59</v>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6224,13 +6333,3813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6943</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6313</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4198</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3692</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>51.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10022,7 +10023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10033,17 +10034,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10053,14 +10074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.06</v>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -10069,14 +10112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>74</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.81</v>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -10085,14 +10150,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.12</v>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7301</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -10101,14 +10188,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.65</v>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -10117,14 +10226,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.59</v>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -10133,13 +10264,2083 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3697</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014756</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013350</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014757</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>9.51</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>15.06</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>13.81</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>3.12</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -600,6 +617,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银消费股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003105</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银消费股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013350</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003106</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015754</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2783,7 +4564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6675,7 +8456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9541,7 +11322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10737,7 +12518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11173,7 +12954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11723,7 +13504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002557-洽洽食品.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>3.32</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>9.51</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>15.06</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>13.81</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>3.12</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -616,7 +633,2131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014756</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上银内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014757</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015781</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015754</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2380,7 +4521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4564,7 +6705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8456,7 +10597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11322,7 +13463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12518,7 +14659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12954,7 +15095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13502,630 +15643,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0775</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270041</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发消费品精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3359</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162203</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利稳定混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1156</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0872</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006780</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发稳健策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0690</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006008</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004436</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富年年泰定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28.56</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010022</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发消费品精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004437</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富年年泰定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>28.56</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>